--- a/spreadsheets/example-timetable_school.xlsx
+++ b/spreadsheets/example-timetable_school.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF9F850-8947-490E-90CD-535DA96FF341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E9CE0A-98FE-4380-A1DF-2B8E41AEBE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{41FF037C-E733-4109-8018-268BF2C7ACEB}"/>
   </bookViews>
@@ -1559,13 +1559,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3118,153 +3118,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
     </row>
     <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
+      <c r="D2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23" t="s">
+      <c r="O3" s="24"/>
+      <c r="P3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24" t="s">
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="23" t="s">
+      <c r="S3" s="25"/>
+      <c r="T3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23" t="s">
+      <c r="U3" s="24"/>
+      <c r="V3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23" t="s">
+      <c r="W3" s="24"/>
+      <c r="X3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23" t="s">
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23" t="s">
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23" t="s">
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="23"/>
+      <c r="AE3" s="24"/>
       <c r="AF3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
@@ -15231,6 +15231,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -15247,9 +15250,6 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -15273,12 +15273,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="A1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -15502,17 +15502,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -15927,7 +15927,7 @@
   <dimension ref="A1:AF51"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15937,149 +15937,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
     </row>
     <row r="2" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
     </row>
     <row r="3" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23" t="s">
+      <c r="O3" s="24"/>
+      <c r="P3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23" t="s">
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23" t="s">
+      <c r="S3" s="24"/>
+      <c r="T3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23" t="s">
+      <c r="U3" s="24"/>
+      <c r="V3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23" t="s">
+      <c r="W3" s="24"/>
+      <c r="X3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23" t="s">
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23" t="s">
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23" t="s">
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="23"/>
+      <c r="AE3" s="24"/>
       <c r="AF3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="6" t="s">
         <v>273</v>
       </c>
@@ -17459,6 +17459,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -17475,9 +17478,6 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
